--- a/3/data.xlsx
+++ b/3/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Projects\pz_electrodinamika\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программы для учебы\pz_elektrodinamika\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59DA0A9-2E64-45D9-975E-161762C3E29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AFD007D5-6A9E-497A-B4C3-5DBC74B3BC4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,24 +32,24 @@
     <t>psi</t>
   </si>
   <si>
-    <t>Г1</t>
+    <t>G1</t>
   </si>
   <si>
-    <t>Г2</t>
+    <t>G2</t>
   </si>
   <si>
-    <t>Т1</t>
+    <t>T1</t>
   </si>
   <si>
-    <t>Т2</t>
+    <t>T2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -399,20 +398,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8988633-43F5-40E0-9166-496EFFB22274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -453,354 +452,354 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.0335714285714301</v>
       </c>
       <c r="B3" s="1">
-        <f xml:space="preserve">  DEGREES(ASIN((SIN(RADIANS(A3))*1^(1/2))/(4.4^(1/2))))</f>
-        <v>0.96930984653340646</v>
+        <f xml:space="preserve">  DEGREES(ASIN((SIN(RADIANS(A3))*4.4^(1/2))/(1^(1/2))))</f>
+        <v>4.2687078395422668</v>
       </c>
       <c r="C3" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B3-A3))/SIN(RADIANS(B3+A3))</f>
-        <v>-0.35455538783075113</v>
+        <f t="shared" ref="C3:C16" si="0" xml:space="preserve"> SIN(RADIANS(B3-A3))/SIN(RADIANS(B3+A3))</f>
+        <v>0.35528129279601878</v>
       </c>
       <c r="D3" s="1">
         <f xml:space="preserve"> TAN(RADIANS(B3-A3))/TAN(RADIANS(B3+A3))</f>
-        <v>-0.3541296385725784</v>
+        <v>0.35340305556780688</v>
       </c>
       <c r="E3">
         <f>(2*SIN(RADIANS(B3))*COS(RADIANS(A3)))/SIN(RADIANS(B3+A3))</f>
-        <v>0.64544461216924898</v>
+        <v>1.3552812927960187</v>
       </c>
       <c r="F3">
         <f>(2*SIN(RADIANS(B3))*COS(RADIANS(A3)))/(SIN(RADIANS(B3+A3))*COS(RADIANS(B3-A3)))</f>
-        <v>0.6455559756838043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3563131930405361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.0671428571428603</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B16" si="0" xml:space="preserve">  DEGREES(ASIN((SIN(RADIANS(A4))*1^(1/2))/(4.4^(1/2))))</f>
-        <v>1.937675684876077</v>
+        <f t="shared" ref="B4:B16" si="1" xml:space="preserve">  DEGREES(ASIN((SIN(RADIANS(A4))*4.4^(1/2))/(1^(1/2))))</f>
+        <v>8.555910675424224</v>
       </c>
       <c r="C4" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B4-A4))/SIN(RADIANS(B4+A4))</f>
-        <v>-0.35519463842657595</v>
+        <f t="shared" si="0"/>
+        <v>0.35812725628358572</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D16" si="1" xml:space="preserve"> TAN(RADIANS(B4-A4))/TAN(RADIANS(B4+A4))</f>
-        <v>-0.35348983584427679</v>
+        <f t="shared" ref="D4:D16" si="2" xml:space="preserve"> TAN(RADIANS(B4-A4))/TAN(RADIANS(B4+A4))</f>
+        <v>0.35054616222503066</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="2">(2*SIN(RADIANS(B4))*COS(RADIANS(A4)))/SIN(RADIANS(B4+A4))</f>
-        <v>0.64480536157342405</v>
+        <f t="shared" ref="E4:E16" si="3">(2*SIN(RADIANS(B4))*COS(RADIANS(A4)))/SIN(RADIANS(B4+A4))</f>
+        <v>1.3581272562835858</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F16" si="3">(2*SIN(RADIANS(B4))*COS(RADIANS(A4)))/(SIN(RADIANS(B4+A4))*COS(RADIANS(B4-A4)))</f>
-        <v>0.64525096170083773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F16" si="4">(2*SIN(RADIANS(B4))*COS(RADIANS(A4)))/(SIN(RADIANS(B4+A4))*COS(RADIANS(B4-A4)))</f>
+        <v>1.3623058630728997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6.1007142857142904</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9041522679257592</v>
+        <f t="shared" si="1"/>
+        <v>12.881031620229422</v>
       </c>
       <c r="C5" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B5-A5))/SIN(RADIANS(B5+A5))</f>
-        <v>-0.3562623306252512</v>
+        <f t="shared" si="0"/>
+        <v>0.36297222391012463</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.35241974085663103</v>
+        <f t="shared" si="2"/>
+        <v>0.34565205913684838</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0.64373766937474897</v>
+        <f t="shared" si="3"/>
+        <v>1.3629722239101245</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
-        <v>0.64474081393200822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.3725718203183852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8.1342857142857206</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8677918825591795</v>
+        <f t="shared" si="1"/>
+        <v>17.265477905415288</v>
       </c>
       <c r="C6" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B6-A6))/SIN(RADIANS(B6+A6))</f>
-        <v>-0.35776188279508853</v>
+        <f t="shared" si="0"/>
+        <v>0.36997896583307116</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.35091367833032311</v>
+        <f t="shared" si="2"/>
+        <v>0.33850540219516007</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>0.64223811720491142</v>
+        <f t="shared" si="3"/>
+        <v>1.3699789658330712</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>0.64402282679405831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.3875627743889438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10.167857142857152</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8276431462992546</v>
+        <f t="shared" si="1"/>
+        <v>21.733988487947872</v>
       </c>
       <c r="C7" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B7-A7))/SIN(RADIANS(B7+A7))</f>
-        <v>-0.3596980936756965</v>
+        <f t="shared" si="0"/>
+        <v>0.37939803260426708</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.34896362295191263</v>
+        <f t="shared" si="2"/>
+        <v>0.32876770658240206</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0.64030190632430339</v>
+        <f t="shared" si="3"/>
+        <v>1.3793980326042672</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0.64309317436892277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.4079887370278403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>12.201428571428581</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7827498400763719</v>
+        <f t="shared" si="1"/>
+        <v>26.316526200745397</v>
       </c>
       <c r="C8" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B8-A8))/SIN(RADIANS(B8+A8))</f>
-        <v>-0.3620771551757952</v>
+        <f t="shared" si="0"/>
+        <v>0.39159648313454587</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.34655911783352911</v>
+        <f t="shared" si="2"/>
+        <v>0.31592878399354141</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>0.63792284482420492</v>
+        <f t="shared" si="3"/>
+        <v>1.3915964831345458</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>0.64194687153090868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.4349198882521776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>14.23500000000001</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7321497899085125</v>
+        <f t="shared" si="1"/>
+        <v>31.051158971806931</v>
       </c>
       <c r="C9" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B9-A9))/SIN(RADIANS(B9+A9))</f>
-        <v>-0.36490666849740866</v>
+        <f t="shared" si="0"/>
+        <v>0.40710632221647541</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.34368716731398297</v>
+        <f t="shared" si="2"/>
+        <v>0.29922165911186704</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0.6350933315025914</v>
+        <f t="shared" si="3"/>
+        <v>1.4071063222164752</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>0.64057772284163261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.4699650490589447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16.268571428571441</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6748738109884336</v>
+        <f t="shared" si="1"/>
+        <v>35.988793475423059</v>
       </c>
       <c r="C10" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B10-A10))/SIN(RADIANS(B10+A10))</f>
-        <v>-0.36819566332651821</v>
+        <f t="shared" si="0"/>
+        <v>0.42670847725955463</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.34033210224041577</v>
+        <f t="shared" si="2"/>
+        <v>0.27746801144803229</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.63180433667348179</v>
+        <f t="shared" si="3"/>
+        <v>1.4267084772595551</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0.63897825832556709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.5155958853585567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>18.302142857142872</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>8.6099447284736694</v>
+        <f t="shared" si="1"/>
+        <v>41.201610931853281</v>
       </c>
       <c r="C11" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B11-A11))/SIN(RADIANS(B11+A11))</f>
-        <v>-0.37195461975887489</v>
+        <f t="shared" si="0"/>
+        <v>0.45158683174865821</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.33647541535148007</v>
+        <f t="shared" si="2"/>
+        <v>0.24877863721265206</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0.62804538024112533</v>
+        <f t="shared" si="3"/>
+        <v>1.4515868317486584</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>0.63713965499205027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.5757752244516201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20.335714285714303</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5363764902104418</v>
+        <f t="shared" si="1"/>
+        <v>46.799656364194355</v>
       </c>
       <c r="C12" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B12-A12))/SIN(RADIANS(B12+A12))</f>
-        <v>-0.37619549255023249</v>
+        <f t="shared" si="0"/>
+        <v>0.48363599729063028</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.33209556379519617</v>
+        <f t="shared" si="2"/>
+        <v>0.20991525185946799</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.62380450744976734</v>
+        <f t="shared" si="3"/>
+        <v>1.4836359972906303</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0.63505164268936742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.6572957493081517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>22.369285714285731</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>10.45317338766429</v>
+        <f t="shared" si="1"/>
+        <v>52.968091927048192</v>
       </c>
       <c r="C13" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B13-A13))/SIN(RADIANS(B13+A13))</f>
-        <v>-0.38093173719144191</v>
+        <f t="shared" si="0"/>
+        <v>0.52615884996146201</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.32716773513750808</v>
+        <f t="shared" si="2"/>
+        <v>0.1547308059444053</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0.6190682628085582</v>
+        <f t="shared" si="3"/>
+        <v>1.526158849961462</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0.63270239255370853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.7730516196223216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>24.402857142857162</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>11.359329402451461</v>
+        <f t="shared" si="1"/>
+        <v>60.069402543404188</v>
       </c>
       <c r="C14" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B14-A14))/SIN(RADIANS(B14+A14))</f>
-        <v>-0.38617833720942352</v>
+        <f t="shared" si="0"/>
+        <v>0.58579105970907652</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.32166357242741589</v>
+        <f t="shared" si="2"/>
+        <v>6.9456196765444539E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.61382166279057648</v>
+        <f t="shared" si="3"/>
+        <v>1.5857910597090765</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0.63007838593911147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.9519251488846128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>26.436428571428593</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>12.253827697031634</v>
+        <f t="shared" si="1"/>
+        <v>69.046186938266246</v>
       </c>
       <c r="C15" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B15-A15))/SIN(RADIANS(B15+A15))</f>
-        <v>-0.39195183198397665</v>
+        <f t="shared" si="0"/>
+        <v>0.6801126852704622</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.31555085295227348</v>
+        <f t="shared" si="2"/>
+        <v>-8.829090911573953E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.60804816801602346</v>
+        <f t="shared" si="3"/>
+        <v>1.6801126852704622</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>0.62716426127006109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.2828182697274517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>28.47000000000002</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>13.135640269293232</v>
+        <f t="shared" si="1"/>
+        <v>89.328430245002437</v>
       </c>
       <c r="C16" s="1">
-        <f xml:space="preserve"> SIN(RADIANS(B16-A16))/SIN(RADIANS(B16+A16))</f>
-        <v>-0.39827034424684404</v>
+        <f t="shared" si="0"/>
+        <v>0.98736752322445742</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.30879311420615557</v>
+        <f t="shared" si="2"/>
+        <v>-0.94558566156081514</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.60172965575315585</v>
+        <f t="shared" si="3"/>
+        <v>1.9873675232244572</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0.62394263572890163</v>
+        <f t="shared" si="4"/>
+        <v>4.0810949134359218</v>
       </c>
     </row>
   </sheetData>
